--- a/Results/5_fold_results.xlsx
+++ b/Results/5_fold_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF28CC-D71D-41F8-9771-22CCEF17646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB4EDD-C68D-49DC-922E-37A9C12E5475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,6 +827,18 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
+      <c r="H4">
+        <v>76.172371733319494</v>
+      </c>
+      <c r="I4">
+        <v>0.77060225567093954</v>
+      </c>
+      <c r="J4">
+        <v>76.172371733319494</v>
+      </c>
+      <c r="K4">
+        <v>71.276239540917416</v>
+      </c>
       <c r="M4" t="s">
         <v>5</v>
       </c>
@@ -865,6 +877,18 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
+      <c r="H5">
+        <v>67.633716554641481</v>
+      </c>
+      <c r="I5">
+        <v>2.247087525502343</v>
+      </c>
+      <c r="J5">
+        <v>67.633716554641481</v>
+      </c>
+      <c r="K5">
+        <v>61.833267738032042</v>
+      </c>
       <c r="M5" t="s">
         <v>6</v>
       </c>
@@ -903,6 +927,18 @@
       <c r="G6" t="s">
         <v>7</v>
       </c>
+      <c r="H6">
+        <v>76.049619806399704</v>
+      </c>
+      <c r="I6">
+        <v>2.7313742625953559</v>
+      </c>
+      <c r="J6">
+        <v>76.049619806399704</v>
+      </c>
+      <c r="K6">
+        <v>73.345866452666854</v>
+      </c>
       <c r="M6" t="s">
         <v>7</v>
       </c>
@@ -941,6 +977,18 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
+      <c r="H7">
+        <v>57.741935483870961</v>
+      </c>
+      <c r="I7">
+        <v>2.6108266954089538</v>
+      </c>
+      <c r="J7">
+        <v>57.741935483870961</v>
+      </c>
+      <c r="K7">
+        <v>50.339305922289363</v>
+      </c>
       <c r="M7" t="s">
         <v>8</v>
       </c>
@@ -979,6 +1027,18 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
+      <c r="H8">
+        <v>90.953641467486747</v>
+      </c>
+      <c r="I8">
+        <v>1.0249635887779729</v>
+      </c>
+      <c r="J8">
+        <v>90.953641467486747</v>
+      </c>
+      <c r="K8">
+        <v>90.696579869967991</v>
+      </c>
       <c r="M8" t="s">
         <v>9</v>
       </c>
@@ -1017,6 +1077,18 @@
       <c r="G9" t="s">
         <v>10</v>
       </c>
+      <c r="H9">
+        <v>83.929272744573922</v>
+      </c>
+      <c r="I9">
+        <v>0.3722887281772273</v>
+      </c>
+      <c r="J9">
+        <v>83.929272744573922</v>
+      </c>
+      <c r="K9">
+        <v>82.037979206714084</v>
+      </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
@@ -1055,6 +1127,18 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
+      <c r="H10">
+        <v>82.45806624624781</v>
+      </c>
+      <c r="I10">
+        <v>0.78354826183305393</v>
+      </c>
+      <c r="J10">
+        <v>82.45806624624781</v>
+      </c>
+      <c r="K10">
+        <v>79.957097705774729</v>
+      </c>
       <c r="M10" t="s">
         <v>11</v>
       </c>
@@ -1093,6 +1177,18 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
+      <c r="H11">
+        <v>79.95579546535869</v>
+      </c>
+      <c r="I11">
+        <v>1.165431929185117</v>
+      </c>
+      <c r="J11">
+        <v>79.95579546535869</v>
+      </c>
+      <c r="K11">
+        <v>76.898633088749108</v>
+      </c>
       <c r="M11" t="s">
         <v>12</v>
       </c>
@@ -1131,6 +1227,18 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
+      <c r="H12">
+        <v>93.038348082595874</v>
+      </c>
+      <c r="I12">
+        <v>1.4149364822922239</v>
+      </c>
+      <c r="J12">
+        <v>93.038348082595874</v>
+      </c>
+      <c r="K12">
+        <v>90.740848967721149</v>
+      </c>
       <c r="M12" t="s">
         <v>13</v>
       </c>
@@ -1169,6 +1277,18 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
+      <c r="H13">
+        <v>94.955752212389385</v>
+      </c>
+      <c r="I13">
+        <v>0.1313379049206673</v>
+      </c>
+      <c r="J13">
+        <v>94.955752212389385</v>
+      </c>
+      <c r="K13">
+        <v>94.881366217335767</v>
+      </c>
       <c r="M13" t="s">
         <v>14</v>
       </c>
@@ -1207,6 +1327,18 @@
       <c r="G14" t="s">
         <v>15</v>
       </c>
+      <c r="H14">
+        <v>82.586441059178711</v>
+      </c>
+      <c r="I14">
+        <v>0.50477627353056964</v>
+      </c>
+      <c r="J14">
+        <v>82.586441059178711</v>
+      </c>
+      <c r="K14">
+        <v>82.096416237207706</v>
+      </c>
       <c r="M14" t="s">
         <v>15</v>
       </c>
@@ -1245,6 +1377,18 @@
       <c r="G15" t="s">
         <v>16</v>
       </c>
+      <c r="H15">
+        <v>89.689530186247282</v>
+      </c>
+      <c r="I15">
+        <v>0.27795643897332722</v>
+      </c>
+      <c r="J15">
+        <v>89.689530186247282</v>
+      </c>
+      <c r="K15">
+        <v>89.396610202351496</v>
+      </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
@@ -1283,6 +1427,18 @@
       <c r="G16" t="s">
         <v>17</v>
       </c>
+      <c r="H16">
+        <v>86.947897473161532</v>
+      </c>
+      <c r="I16">
+        <v>0.357299971393157</v>
+      </c>
+      <c r="J16">
+        <v>86.947897473161532</v>
+      </c>
+      <c r="K16">
+        <v>84.484095878598382</v>
+      </c>
       <c r="M16" t="s">
         <v>17</v>
       </c>
@@ -1321,6 +1477,18 @@
       <c r="G17" t="s">
         <v>18</v>
       </c>
+      <c r="H17">
+        <v>90.796460176991147</v>
+      </c>
+      <c r="I17">
+        <v>0.18773198667475041</v>
+      </c>
+      <c r="J17">
+        <v>90.796460176991147</v>
+      </c>
+      <c r="K17">
+        <v>90.310343386208956</v>
+      </c>
       <c r="M17" t="s">
         <v>18</v>
       </c>
@@ -1359,6 +1527,18 @@
       <c r="G18" t="s">
         <v>19</v>
       </c>
+      <c r="H18">
+        <v>78.023598820058993</v>
+      </c>
+      <c r="I18">
+        <v>1.5356250765473549</v>
+      </c>
+      <c r="J18">
+        <v>78.023598820058993</v>
+      </c>
+      <c r="K18">
+        <v>76.032240246332151</v>
+      </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
@@ -1397,6 +1577,18 @@
       <c r="G19" t="s">
         <v>20</v>
       </c>
+      <c r="H19">
+        <v>80.058997050147497</v>
+      </c>
+      <c r="I19">
+        <v>1.566566243670851</v>
+      </c>
+      <c r="J19">
+        <v>80.058997050147497</v>
+      </c>
+      <c r="K19">
+        <v>78.993894345560832</v>
+      </c>
       <c r="M19" t="s">
         <v>20</v>
       </c>
@@ -1435,6 +1627,18 @@
       <c r="G20" t="s">
         <v>21</v>
       </c>
+      <c r="H20">
+        <v>97.497642713172269</v>
+      </c>
+      <c r="I20">
+        <v>3.7893175501686589E-2</v>
+      </c>
+      <c r="J20">
+        <v>97.497642713172269</v>
+      </c>
+      <c r="K20">
+        <v>97.47578353626146</v>
+      </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
@@ -1473,6 +1677,18 @@
       <c r="G21" t="s">
         <v>22</v>
       </c>
+      <c r="H21">
+        <v>81.535307398852922</v>
+      </c>
+      <c r="I21">
+        <v>1.435575946569345</v>
+      </c>
+      <c r="J21">
+        <v>81.535307398852922</v>
+      </c>
+      <c r="K21">
+        <v>77.714264072269089</v>
+      </c>
       <c r="M21" t="s">
         <v>22</v>
       </c>
@@ -1511,6 +1727,18 @@
       <c r="G22" t="s">
         <v>23</v>
       </c>
+      <c r="H22">
+        <v>83.277277485099347</v>
+      </c>
+      <c r="I22">
+        <v>1.311763641277397</v>
+      </c>
+      <c r="J22">
+        <v>83.277277485099347</v>
+      </c>
+      <c r="K22">
+        <v>81.36696611883967</v>
+      </c>
       <c r="M22" t="s">
         <v>23</v>
       </c>
@@ -1549,6 +1777,18 @@
       <c r="G23" t="s">
         <v>24</v>
       </c>
+      <c r="H23">
+        <v>99.237536656891493</v>
+      </c>
+      <c r="I23">
+        <v>2.7443046035738421E-2</v>
+      </c>
+      <c r="J23">
+        <v>99.237536656891493</v>
+      </c>
+      <c r="K23">
+        <v>99.231995949411996</v>
+      </c>
       <c r="M23" t="s">
         <v>24</v>
       </c>
@@ -1587,6 +1827,18 @@
       <c r="G24" t="s">
         <v>25</v>
       </c>
+      <c r="H24">
+        <v>78.385453161359521</v>
+      </c>
+      <c r="I24">
+        <v>0.79355823684976046</v>
+      </c>
+      <c r="J24">
+        <v>78.385453161359521</v>
+      </c>
+      <c r="K24">
+        <v>76.165639893636921</v>
+      </c>
       <c r="M24" t="s">
         <v>25</v>
       </c>
@@ -1625,6 +1877,18 @@
       <c r="G25" t="s">
         <v>26</v>
       </c>
+      <c r="H25">
+        <v>93.395444597271606</v>
+      </c>
+      <c r="I25">
+        <v>0.74758335644336193</v>
+      </c>
+      <c r="J25">
+        <v>93.395444597271606</v>
+      </c>
+      <c r="K25">
+        <v>91.399936267169252</v>
+      </c>
       <c r="M25" t="s">
         <v>26</v>
       </c>
@@ -1663,6 +1927,18 @@
       <c r="G26" t="s">
         <v>27</v>
       </c>
+      <c r="H26">
+        <v>88.121437036652566</v>
+      </c>
+      <c r="I26">
+        <v>0.42167362381992418</v>
+      </c>
+      <c r="J26">
+        <v>88.121437036652566</v>
+      </c>
+      <c r="K26">
+        <v>86.707292850217243</v>
+      </c>
       <c r="M26" t="s">
         <v>27</v>
       </c>
@@ -1701,6 +1977,18 @@
       <c r="G27" t="s">
         <v>28</v>
       </c>
+      <c r="H27">
+        <v>92.04716303774255</v>
+      </c>
+      <c r="I27">
+        <v>0.36369623479567198</v>
+      </c>
+      <c r="J27">
+        <v>92.04716303774255</v>
+      </c>
+      <c r="K27">
+        <v>89.93721254812877</v>
+      </c>
       <c r="M27" t="s">
         <v>28</v>
       </c>
@@ -1739,6 +2027,18 @@
       <c r="G28" t="s">
         <v>29</v>
       </c>
+      <c r="H28">
+        <v>91.445427728613552</v>
+      </c>
+      <c r="I28">
+        <v>0.32754495349866869</v>
+      </c>
+      <c r="J28">
+        <v>91.445427728613552</v>
+      </c>
+      <c r="K28">
+        <v>90.614674805129582</v>
+      </c>
       <c r="M28" t="s">
         <v>29</v>
       </c>
@@ -1777,6 +2077,18 @@
       <c r="G29" t="s">
         <v>30</v>
       </c>
+      <c r="H29">
+        <v>91.386430678466084</v>
+      </c>
+      <c r="I29">
+        <v>0.72110293145644178</v>
+      </c>
+      <c r="J29">
+        <v>91.386430678466084</v>
+      </c>
+      <c r="K29">
+        <v>89.00772667473629</v>
+      </c>
       <c r="M29" t="s">
         <v>30</v>
       </c>
@@ -1815,6 +2127,18 @@
       <c r="G30" t="s">
         <v>31</v>
       </c>
+      <c r="H30">
+        <v>92.988520661943454</v>
+      </c>
+      <c r="I30">
+        <v>0.18467852735105611</v>
+      </c>
+      <c r="J30">
+        <v>92.988520661943454</v>
+      </c>
+      <c r="K30">
+        <v>92.824778264214899</v>
+      </c>
       <c r="M30" t="s">
         <v>31</v>
       </c>
@@ -1853,6 +2177,18 @@
       <c r="G31" t="s">
         <v>32</v>
       </c>
+      <c r="H31">
+        <v>86.202994835595462</v>
+      </c>
+      <c r="I31">
+        <v>0.55209371312946598</v>
+      </c>
+      <c r="J31">
+        <v>86.202994835595462</v>
+      </c>
+      <c r="K31">
+        <v>85.341124300743942</v>
+      </c>
       <c r="M31" t="s">
         <v>32</v>
       </c>
@@ -1891,6 +2227,18 @@
       <c r="G32" t="s">
         <v>33</v>
       </c>
+      <c r="H32">
+        <v>85.442088599382345</v>
+      </c>
+      <c r="I32">
+        <v>0.42558341507149933</v>
+      </c>
+      <c r="J32">
+        <v>85.442088599382345</v>
+      </c>
+      <c r="K32">
+        <v>84.373394555407998</v>
+      </c>
       <c r="M32" t="s">
         <v>33</v>
       </c>
@@ -1929,6 +2277,18 @@
       <c r="G33" t="s">
         <v>34</v>
       </c>
+      <c r="H33">
+        <v>88.454052370695237</v>
+      </c>
+      <c r="I33">
+        <v>0.28662834717024349</v>
+      </c>
+      <c r="J33">
+        <v>88.454052370695237</v>
+      </c>
+      <c r="K33">
+        <v>87.827402151300902</v>
+      </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
@@ -1967,6 +2327,18 @@
       <c r="G34" t="s">
         <v>35</v>
       </c>
+      <c r="H34">
+        <v>91.040579935812588</v>
+      </c>
+      <c r="I34">
+        <v>0.2516192638245206</v>
+      </c>
+      <c r="J34">
+        <v>91.040579935812588</v>
+      </c>
+      <c r="K34">
+        <v>90.947279772867461</v>
+      </c>
       <c r="M34" t="s">
         <v>35</v>
       </c>
@@ -2005,6 +2377,18 @@
       <c r="G35" t="s">
         <v>36</v>
       </c>
+      <c r="H35">
+        <v>93.132034014135073</v>
+      </c>
+      <c r="I35">
+        <v>0.15493891079423711</v>
+      </c>
+      <c r="J35">
+        <v>93.132034014135073</v>
+      </c>
+      <c r="K35">
+        <v>93.00890238083926</v>
+      </c>
       <c r="M35" t="s">
         <v>36</v>
       </c>
@@ -2043,6 +2427,18 @@
       <c r="G36" t="s">
         <v>37</v>
       </c>
+      <c r="H36">
+        <v>96.224188790560476</v>
+      </c>
+      <c r="I36">
+        <v>8.0099463855541758E-2</v>
+      </c>
+      <c r="J36">
+        <v>96.224188790560476</v>
+      </c>
+      <c r="K36">
+        <v>96.202115157589134</v>
+      </c>
       <c r="M36" t="s">
         <v>37</v>
       </c>
@@ -2081,6 +2477,18 @@
       <c r="G37" t="s">
         <v>38</v>
       </c>
+      <c r="H37">
+        <v>88.136143046220127</v>
+      </c>
+      <c r="I37">
+        <v>0.21095676494032509</v>
+      </c>
+      <c r="J37">
+        <v>88.136143046220127</v>
+      </c>
+      <c r="K37">
+        <v>87.546825120235226</v>
+      </c>
       <c r="M37" t="s">
         <v>38</v>
       </c>
@@ -2119,6 +2527,18 @@
       <c r="G38" t="s">
         <v>39</v>
       </c>
+      <c r="H38">
+        <v>89.410029498525077</v>
+      </c>
+      <c r="I38">
+        <v>0.731585187165668</v>
+      </c>
+      <c r="J38">
+        <v>89.410029498525077</v>
+      </c>
+      <c r="K38">
+        <v>87.574843887636959</v>
+      </c>
       <c r="M38" t="s">
         <v>39</v>
       </c>
@@ -2157,6 +2577,18 @@
       <c r="G39" t="s">
         <v>40</v>
       </c>
+      <c r="H39">
+        <v>87.539771105286377</v>
+      </c>
+      <c r="I39">
+        <v>0.40710327576166261</v>
+      </c>
+      <c r="J39">
+        <v>87.539771105286377</v>
+      </c>
+      <c r="K39">
+        <v>87.181237941757928</v>
+      </c>
       <c r="M39" t="s">
         <v>40</v>
       </c>
@@ -2195,6 +2627,18 @@
       <c r="G40" t="s">
         <v>41</v>
       </c>
+      <c r="H40">
+        <v>93.21533923303835</v>
+      </c>
+      <c r="I40">
+        <v>0.1098541955536399</v>
+      </c>
+      <c r="J40">
+        <v>93.21533923303835</v>
+      </c>
+      <c r="K40">
+        <v>93.249908373753712</v>
+      </c>
       <c r="M40" t="s">
         <v>41</v>
       </c>
@@ -2233,6 +2677,18 @@
       <c r="G41" t="s">
         <v>42</v>
       </c>
+      <c r="H41">
+        <v>90.455453766901087</v>
+      </c>
+      <c r="I41">
+        <v>0.2038638083544827</v>
+      </c>
+      <c r="J41">
+        <v>90.455453766901087</v>
+      </c>
+      <c r="K41">
+        <v>89.425409331093306</v>
+      </c>
       <c r="M41" t="s">
         <v>42</v>
       </c>
@@ -2271,6 +2727,18 @@
       <c r="G42" t="s">
         <v>43</v>
       </c>
+      <c r="H42">
+        <v>98.290642652618104</v>
+      </c>
+      <c r="I42">
+        <v>3.6386520198764427E-2</v>
+      </c>
+      <c r="J42">
+        <v>98.290642652618104</v>
+      </c>
+      <c r="K42">
+        <v>98.277524880988807</v>
+      </c>
       <c r="M42" t="s">
         <v>43</v>
       </c>
@@ -2309,6 +2777,18 @@
       <c r="G43" t="s">
         <v>44</v>
       </c>
+      <c r="H43">
+        <v>90.035207917023499</v>
+      </c>
+      <c r="I43">
+        <v>0.43884272091448212</v>
+      </c>
+      <c r="J43">
+        <v>90.035207917023499</v>
+      </c>
+      <c r="K43">
+        <v>88.121490803071509</v>
+      </c>
       <c r="M43" t="s">
         <v>44</v>
       </c>
@@ -2347,6 +2827,18 @@
       <c r="G44" t="s">
         <v>45</v>
       </c>
+      <c r="H44">
+        <v>80.707964601769916</v>
+      </c>
+      <c r="I44">
+        <v>1.0588497999649611</v>
+      </c>
+      <c r="J44">
+        <v>80.707964601769916</v>
+      </c>
+      <c r="K44">
+        <v>79.21879669110038</v>
+      </c>
       <c r="M44" t="s">
         <v>45</v>
       </c>
@@ -2385,6 +2877,18 @@
       <c r="G45" t="s">
         <v>46</v>
       </c>
+      <c r="H45">
+        <v>90.678466076696168</v>
+      </c>
+      <c r="I45">
+        <v>0.33262595805450251</v>
+      </c>
+      <c r="J45">
+        <v>90.678466076696168</v>
+      </c>
+      <c r="K45">
+        <v>90.921267289810331</v>
+      </c>
       <c r="M45" t="s">
         <v>46</v>
       </c>
@@ -2423,6 +2927,18 @@
       <c r="G46" t="s">
         <v>47</v>
       </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>2.439221765880431E-2</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
       <c r="M46" t="s">
         <v>47</v>
       </c>
@@ -2461,6 +2977,18 @@
       <c r="G47" t="s">
         <v>48</v>
       </c>
+      <c r="H47">
+        <v>94.813622955215877</v>
+      </c>
+      <c r="I47">
+        <v>8.1570064007244508E-2</v>
+      </c>
+      <c r="J47">
+        <v>94.813622955215877</v>
+      </c>
+      <c r="K47">
+        <v>94.736061768988549</v>
+      </c>
       <c r="M47" t="s">
         <v>48</v>
       </c>
@@ -2499,6 +3027,18 @@
       <c r="G48" t="s">
         <v>49</v>
       </c>
+      <c r="H48">
+        <v>98.387096774193552</v>
+      </c>
+      <c r="I48">
+        <v>5.3757134973435913E-2</v>
+      </c>
+      <c r="J48">
+        <v>98.387096774193552</v>
+      </c>
+      <c r="K48">
+        <v>98.373991088133479</v>
+      </c>
       <c r="M48" t="s">
         <v>49</v>
       </c>
@@ -2529,9 +3069,9 @@
       <c r="G49" t="s">
         <v>50</v>
       </c>
-      <c r="H49" t="e">
+      <c r="H49">
         <f>AVERAGE(H4:H48)</f>
-        <v>#DIV/0!</v>
+        <v>87.610550264275659</v>
       </c>
       <c r="M49" t="s">
         <v>50</v>
